--- a/file.xlsx
+++ b/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso Pinto\Desktop\CSV_Translator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso Pinto\Desktop\Excel_Ez_Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C6530-74A9-42B4-8043-F3583E531B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234580D-FD69-4D0D-9747-8E1DB1CB0B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2892" yWindow="2052" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Português</t>
   </si>
   <si>
     <t>Car</t>
@@ -380,26 +377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afonso Pinto\Desktop\Excel_Ez_Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234580D-FD69-4D0D-9747-8E1DB1CB0B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5D625-9341-4755-8EC8-A6F519A326D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2052" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,6 +382,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
